--- a/germline_schema/templates/inferred_sequence_documentation_template.xlsx
+++ b/germline_schema/templates/inferred_sequence_documentation_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research\AIRR\gldb-wg\germline_schema\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55FB94CE-C3DE-4553-9714-B22CCA8B1643}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C71DF4-CB70-48EE-A907-EEB7172ABA97}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{DD85FD95-12E7-448E-A91F-E6CA1F927527}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Schema Version</t>
   </si>
@@ -81,6 +81,14 @@
   </si>
   <si>
     <t>Explanation of fields</t>
+  </si>
+  <si>
+    <t>Note on Sequence Co-ordinates</t>
+  </si>
+  <si>
+    <t>Nucleotides within the inferred sequence are numbered from 1 - that is, a sequence of length n 
+should be numbered from 1 to n. These numbers are used as co-ordinates to identify the start 
+and end nucleotide of defined regions.</t>
   </si>
 </sst>
 </file>
@@ -237,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
@@ -258,6 +266,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -572,15 +583,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CDBE014-238F-4800-B897-D1AD67EB2DA2}">
-  <dimension ref="A3:C21"/>
+  <dimension ref="A3:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:B21"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -588,53 +599,76 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="17" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B8:L8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/germline_schema/templates/inferred_sequence_documentation_template.xlsx
+++ b/germline_schema/templates/inferred_sequence_documentation_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research\AIRR\gldb-wg\germline_schema\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C71DF4-CB70-48EE-A907-EEB7172ABA97}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E23D614-2A37-40CE-AEE0-48F0FED1DE8D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{DD85FD95-12E7-448E-A91F-E6CA1F927527}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Schema Version</t>
   </si>
@@ -89,6 +89,12 @@
     <t>Nucleotides within the inferred sequence are numbered from 1 - that is, a sequence of length n 
 should be numbered from 1 to n. These numbers are used as co-ordinates to identify the start 
 and end nucleotide of defined regions.</t>
+  </si>
+  <si>
+    <t>This sheet is used to document an inferred gene sequence published by IARC, based on information contained
+within one or more submissions to the Committee. It may be re-issued if new information comes to light (for
+example, if supporting information is contained in further submissions to IARC). In such cases, the description_id 
+will never change, and can therefore be used to associate revisions of the same inferred sequence.</t>
   </si>
 </sst>
 </file>
@@ -583,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CDBE014-238F-4800-B897-D1AD67EB2DA2}">
-  <dimension ref="A3:L24"/>
+  <dimension ref="A3:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,72 +608,91 @@
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:12" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="17" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="18" t="s">
+    <row r="10" spans="1:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="17" t="s">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B8:L8"/>
+  <mergeCells count="2">
+    <mergeCell ref="B10:L10"/>
+    <mergeCell ref="B5:L5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
